--- a/Campania.xlsx
+++ b/Campania.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\intelligenza_computazionale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4335367-1628-41D4-8B3D-85D30FDD3D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595254A-9701-42BE-85E3-C797803FA3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D00663A6-5D45-4DCF-8D02-3A18BBFE00F5}"/>
   </bookViews>
@@ -894,7 +894,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8EE2AEC-9927-44EB-911C-39A5EB353386}" type="CELLRANGE">
+                    <a:fld id="{25FC0D6F-A598-40AF-9EEA-D0023809C999}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -926,7 +926,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D0607D2-6F16-4992-A907-672E7EF54476}" type="CELLRANGE">
+                    <a:fld id="{CE889677-C6DD-4642-B272-6F72A245D9B0}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -959,7 +959,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C4D0048-480F-4198-AFAE-DCB68466428F}" type="CELLRANGE">
+                    <a:fld id="{CCB583E8-DBC6-46E0-BA22-CCAB3231B9C0}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -992,7 +992,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E856873-9F85-4BFE-BD7C-15288FF4F8EF}" type="CELLRANGE">
+                    <a:fld id="{B5E44438-32CC-4344-B573-F8CC152095F8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1025,7 +1025,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBA285A8-1D09-4F80-8E6A-4CF9250BC906}" type="CELLRANGE">
+                    <a:fld id="{26664F6E-70FB-4A40-BA5F-AEC06646C966}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1058,7 +1058,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46A441CB-8C6B-4C95-BF98-6C30FDE24BC1}" type="CELLRANGE">
+                    <a:fld id="{F7DDDF93-9C15-4167-9776-5B1E2024BDD7}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1091,7 +1091,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4E604BB-CD70-4262-820C-3D9215258768}" type="CELLRANGE">
+                    <a:fld id="{29974F36-5344-4D98-B251-038652235254}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1124,7 +1124,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{040D7D9B-9E12-4906-9806-B295B9A1B369}" type="CELLRANGE">
+                    <a:fld id="{CA5199AE-5131-4FA6-8771-B694852E0E76}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1157,7 +1157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8846DF03-8E7D-41FE-BC67-9FB5C1833859}" type="CELLRANGE">
+                    <a:fld id="{0246F149-194F-4E8C-9E1D-328B6597D8BB}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1190,7 +1190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{095F31D8-3FDA-44CC-8D1E-51EEAC9F75F7}" type="CELLRANGE">
+                    <a:fld id="{844677B1-2265-46AA-8541-EF753E2177D3}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1223,7 +1223,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7EE3444-2345-4813-ADF1-44C4A439A86B}" type="CELLRANGE">
+                    <a:fld id="{2ECFF30F-8367-4494-872B-35BF728BC62D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1256,7 +1256,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24C2F502-BAAD-492E-9EBE-EBB4753859B1}" type="CELLRANGE">
+                    <a:fld id="{46C7B39E-8BD3-4F38-B14C-7FAC06F7B73C}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1289,7 +1289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1774334-2178-496B-859A-6E5D5A2494C2}" type="CELLRANGE">
+                    <a:fld id="{FC55672E-54DD-4FCF-BB46-2F462453AAFE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1322,7 +1322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A911EB8-F090-4DBA-AD61-A68646ABEF58}" type="CELLRANGE">
+                    <a:fld id="{E8E65533-9360-4DAF-B639-6D7B1601AA8D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1355,7 +1355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D765CA26-AAED-45F7-AE5F-C3C80DEC4269}" type="CELLRANGE">
+                    <a:fld id="{F9D3D4A4-E8B5-471C-AE2B-C3448774428F}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1388,7 +1388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1D99E8C-CC9D-4EB5-803C-6FB88EB5E51E}" type="CELLRANGE">
+                    <a:fld id="{0E2A25B3-559E-469D-91AC-82C5640268A7}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1421,7 +1421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19FE672B-256C-4DD2-A5FA-0E17DE90E8E9}" type="CELLRANGE">
+                    <a:fld id="{ED804B01-A149-4B4F-860F-278F2ADD84CA}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1454,7 +1454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED97A058-62B6-41E5-9B56-0F78FA7B5AAB}" type="CELLRANGE">
+                    <a:fld id="{14BEEB64-4412-4DD5-87A4-3A11D287DD03}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1487,7 +1487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB7054CA-6049-40EA-A747-0C7E673059AC}" type="CELLRANGE">
+                    <a:fld id="{88B78016-8914-4B53-A403-40AEA1F4AEA4}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1520,7 +1520,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86B86C9A-A562-4C58-BEC0-51EBAAB9C715}" type="CELLRANGE">
+                    <a:fld id="{9939850E-7C17-46C2-B262-6BAFD33210B1}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1553,7 +1553,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6A34198-3102-48EC-86B1-AB233AE0476E}" type="CELLRANGE">
+                    <a:fld id="{CFEABF03-7128-4E91-9407-B1AE9C6FD4E2}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1586,7 +1586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15D80777-D4B1-408D-832E-C964419D618C}" type="CELLRANGE">
+                    <a:fld id="{D9AAC923-519A-4AC9-8E2E-7EB21E02A8DB}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1619,7 +1619,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9248C892-23B6-486C-A74D-4DC8BBE4456A}" type="CELLRANGE">
+                    <a:fld id="{665680C3-F6ED-4D58-BBA2-C1DE611EBCA8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1652,7 +1652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBE73060-4C9B-4941-98AB-F5C9DF7FBD9E}" type="CELLRANGE">
+                    <a:fld id="{C0B90B0E-0217-40EE-AF38-79A0FA1E8491}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1685,7 +1685,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79DDF328-9148-48E0-9C7F-4D1E8E5FE4FC}" type="CELLRANGE">
+                    <a:fld id="{85BDE25E-4750-4673-AF2C-495C55CC297B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1718,7 +1718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2D5FC3A-602D-4EAD-9567-00566A3D5B76}" type="CELLRANGE">
+                    <a:fld id="{57394309-364C-419B-9920-E75DD3767964}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1751,7 +1751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70C430B2-3093-4254-BEC9-2609427F8AE7}" type="CELLRANGE">
+                    <a:fld id="{01EFDF5B-1A6D-41E6-936D-42DFD93D2FF1}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1784,7 +1784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B88C5DE-AE95-4D7E-AAD5-71B57D2D2D01}" type="CELLRANGE">
+                    <a:fld id="{8DCC70F0-CB20-4467-B25A-13DE92B703D2}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1817,7 +1817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C5C9665-0FCD-4E03-A6BB-27687EACCAB7}" type="CELLRANGE">
+                    <a:fld id="{75952908-B9D1-4FFC-BD7C-F87F0DE236BE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1850,7 +1850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4CD693A-AD61-4820-938D-737019395B0E}" type="CELLRANGE">
+                    <a:fld id="{39750001-0B4B-4FFC-901C-A47D50CFE56B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1883,7 +1883,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E03172B-C615-492C-900C-B4602606B9CC}" type="CELLRANGE">
+                    <a:fld id="{9BC6E494-ED3F-4D9E-B891-87099C22A435}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1916,7 +1916,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A04C600-B83B-47F7-86FE-7FEA97A1A78D}" type="CELLRANGE">
+                    <a:fld id="{5F06EB42-4EE5-46FA-BF45-8119DBE72E93}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1949,7 +1949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E52ACB7F-D59E-4AED-BDD8-7687ADA875A8}" type="CELLRANGE">
+                    <a:fld id="{893F0DC1-0971-4D3D-AEFA-7C36C11A850F}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1982,7 +1982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9643442-BE88-4E60-83EF-2ADA254D7FD1}" type="CELLRANGE">
+                    <a:fld id="{82EEB3B7-F80C-4D7B-ABA6-39FBA65A88B5}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2015,7 +2015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B333ECB-7676-415F-8D49-43F2381F7E10}" type="CELLRANGE">
+                    <a:fld id="{7D279EB1-4C23-4BE2-BB1B-C1EC149CD438}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2048,7 +2048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA0E6FFE-7EAA-41FC-8923-117614AE090C}" type="CELLRANGE">
+                    <a:fld id="{2B66E31F-6753-4B0F-8F22-25BA9965642D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2081,7 +2081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4FA9743-F86F-4D3C-835F-6EEDBAD76E23}" type="CELLRANGE">
+                    <a:fld id="{B553D265-2238-4104-98CD-9D9C11905240}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2114,7 +2114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD7F87AC-4A97-44C8-9EB3-B8D7C44A245C}" type="CELLRANGE">
+                    <a:fld id="{0978C535-4CEF-4540-8136-8E69638876E4}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2147,7 +2147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62EF5DCC-74D3-425B-88D6-BEE5B3563BD9}" type="CELLRANGE">
+                    <a:fld id="{123138D7-A044-4888-8F6D-EB5712653FE1}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2180,7 +2180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{951CE089-1544-47DC-A66A-0777A80C6B4B}" type="CELLRANGE">
+                    <a:fld id="{EADC392F-A443-48BB-9DE5-40D428F3160E}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2213,7 +2213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0908B24B-FD8B-4685-BF0B-AAF073A9A366}" type="CELLRANGE">
+                    <a:fld id="{A8FF29FA-E5EE-40BC-9524-DE72A2FC8B86}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2246,7 +2246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E7F6DDF-7295-491A-8D8A-6D13E76B4DD1}" type="CELLRANGE">
+                    <a:fld id="{C74808A0-7A5B-4E28-ABCB-67F9A7BF85F3}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2279,7 +2279,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{617F67D9-9247-49FC-893F-6A328B05F777}" type="CELLRANGE">
+                    <a:fld id="{B66A1A98-4B66-42EE-B89E-B2B07A72B939}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2312,7 +2312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6192F1BE-20D2-42F1-B019-B2608105CCF9}" type="CELLRANGE">
+                    <a:fld id="{501050EE-8AB9-4ADF-A9EA-EC21D49DCF56}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2345,7 +2345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DEB1A9B-6722-45EB-BBFC-97BB41DA8E71}" type="CELLRANGE">
+                    <a:fld id="{3266B66F-CE0F-438E-A17B-E6932D06F216}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2378,7 +2378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77EFE210-0B71-46EF-9F3B-5FCF1348FE90}" type="CELLRANGE">
+                    <a:fld id="{12B5CDEE-A517-449C-BD79-BD280F558737}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2411,7 +2411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{599D84AF-19F9-482B-88F2-DBA10CA00BC9}" type="CELLRANGE">
+                    <a:fld id="{31FA505D-018C-4B2D-85B7-08EFF16CBFA8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2444,7 +2444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C87EBFB-4795-4985-8DC2-A58EBD8F3D0D}" type="CELLRANGE">
+                    <a:fld id="{0CEAE320-DCA2-416F-A28E-11F8D658A41D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2477,7 +2477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0B289C1-3441-4E52-9EB5-3F4A92D91A63}" type="CELLRANGE">
+                    <a:fld id="{21E1572A-6CA5-45F7-A0DA-821746EF245D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2510,7 +2510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3742FE0C-CC62-4460-AAA9-7010E63F6DA7}" type="CELLRANGE">
+                    <a:fld id="{C476A5C6-0CFD-4FC8-9367-F66831623382}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2543,7 +2543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A54CE4B-19A7-40FC-AFFD-FEAEE8A97E69}" type="CELLRANGE">
+                    <a:fld id="{1BF0D641-0707-4370-8275-AA203C8A4CC2}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2576,7 +2576,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7DE0F70-FD05-4C88-B8A7-07A399518E0F}" type="CELLRANGE">
+                    <a:fld id="{98080109-4571-40FF-B68C-FAF98B05AC06}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2609,7 +2609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2050EC53-72DA-4F29-AB00-F9CC1D77B951}" type="CELLRANGE">
+                    <a:fld id="{951D2CA3-879A-4D34-8561-6854DB516EF2}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2642,7 +2642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E2716AE-8BED-4D64-9FE0-B0B10DAEBAF7}" type="CELLRANGE">
+                    <a:fld id="{7742B7BC-4F10-45DF-AA0A-6A24885EB6C8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2675,7 +2675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{799B179C-04B3-433F-A6D6-A9196D213149}" type="CELLRANGE">
+                    <a:fld id="{6A382939-F93D-4878-9454-0652E2829D81}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2708,7 +2708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7AABBAF-DE5E-454D-A074-9938E1C4AB86}" type="CELLRANGE">
+                    <a:fld id="{35C78D3D-F792-4F22-BC34-D2F0490FC4BA}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2741,7 +2741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A12B50D0-CF02-4840-874D-9E6A19F3DEC1}" type="CELLRANGE">
+                    <a:fld id="{C6AC15F6-3F13-4154-A13F-D4828C7DB982}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2774,7 +2774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{242279EE-017E-4D50-9960-A3953485E6B1}" type="CELLRANGE">
+                    <a:fld id="{1D2F64EE-C958-4C2F-B109-935ECA2E2F56}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2807,7 +2807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAB799CC-2CAB-4842-B0AD-8077A9E4DDF9}" type="CELLRANGE">
+                    <a:fld id="{15678929-158E-47AB-BDF3-33A885127C2A}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2840,7 +2840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F7D827E-8EA9-4AA2-AA80-3785508AB5B8}" type="CELLRANGE">
+                    <a:fld id="{DB77CBA3-AF9E-4FB0-BF52-B2735EF44CA9}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2873,7 +2873,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E02CD81-EE95-4595-B0AD-EA302DD05BB9}" type="CELLRANGE">
+                    <a:fld id="{1D3F97C1-37AE-44E9-B40E-0E345029DC87}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2906,7 +2906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25438B17-74DA-41EE-B307-097A660AABE7}" type="CELLRANGE">
+                    <a:fld id="{2F440DDE-1043-4A97-9428-1783FEBBE107}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2939,7 +2939,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{394D644F-F621-4166-9489-8BA274526AB6}" type="CELLRANGE">
+                    <a:fld id="{AB34D958-90E2-4309-8D5E-54E696424FE6}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2972,7 +2972,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89B35FEA-F055-470A-B1EA-FDD6E5B969AD}" type="CELLRANGE">
+                    <a:fld id="{D2FD0D18-100E-43D9-95C4-FD1FCAE4D5EE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3005,7 +3005,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{359CDA87-EFBE-4BFE-B6F1-C12D3B59F555}" type="CELLRANGE">
+                    <a:fld id="{01CE79C3-3A41-4EEC-A4B7-905567B88765}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3038,7 +3038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0693906-E122-418E-B9BA-EFB17CDC3F61}" type="CELLRANGE">
+                    <a:fld id="{089E39C8-BD87-43A9-9389-276927D643FA}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3071,7 +3071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25D21813-1939-409C-8F6C-6CAD44182EF2}" type="CELLRANGE">
+                    <a:fld id="{E57B796F-3A4F-4DB1-8B4A-6B37ECD204D8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3104,7 +3104,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD33554C-F17B-4056-BF5A-9AFB981DF839}" type="CELLRANGE">
+                    <a:fld id="{9E97A95C-5CFA-4DF1-A411-CD2A8BBDFDBA}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3137,7 +3137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BDA00E3-346A-4D2E-AE32-490E544A8E58}" type="CELLRANGE">
+                    <a:fld id="{5E86F622-6C7C-4D2F-8C08-8B93B99E63D3}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3170,7 +3170,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C4EA721-9BA4-49F6-950F-CA9251D18334}" type="CELLRANGE">
+                    <a:fld id="{08170816-6D24-4B18-8C91-1799182E6920}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3203,7 +3203,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20C62085-B7EB-4843-B215-ECB253F8A01D}" type="CELLRANGE">
+                    <a:fld id="{8A6C7BF5-7906-4EE2-94DC-33710ADE1B5E}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3236,7 +3236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A4EAA7C-C99D-425B-B30D-A67D07D42130}" type="CELLRANGE">
+                    <a:fld id="{5C150DA0-E428-4F61-9495-17ADBB257BE8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3269,7 +3269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91469087-D119-4C53-9DEC-28C3A2C98600}" type="CELLRANGE">
+                    <a:fld id="{D2EE5509-96A0-43C5-B41A-DC53EEDFD0A1}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3302,7 +3302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1653A2BB-7145-4323-8490-403A4CC6CBE8}" type="CELLRANGE">
+                    <a:fld id="{7C33A42B-9C7D-440F-8770-EA6314602DBD}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3335,7 +3335,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6446D06D-34A9-433E-8FC2-20AB36401DCB}" type="CELLRANGE">
+                    <a:fld id="{A275620B-2633-4462-A51D-2224632877DF}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3368,7 +3368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3E463FF-3FBF-4B8A-89E8-4DE73595FFEB}" type="CELLRANGE">
+                    <a:fld id="{0E0E1E85-BA11-47B7-ACE9-815B2A7C7728}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3401,7 +3401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E8AD5C6-56D1-4EF3-BCE1-3789B4859790}" type="CELLRANGE">
+                    <a:fld id="{632EC6A4-C479-4E8C-B3AC-6B514D76BA24}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3434,7 +3434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E64D7DF-F29D-4ED6-B0B3-ACC55BB39386}" type="CELLRANGE">
+                    <a:fld id="{0324A2DB-5D53-4F38-9A46-064FA8153EEE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3467,7 +3467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11409E40-AE3B-4488-8732-871C7B7BD8EB}" type="CELLRANGE">
+                    <a:fld id="{095581F9-05D1-40CE-9E42-B2830E571B1E}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3500,7 +3500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0C8B07A-005B-4028-9F47-1ED679EF0EB5}" type="CELLRANGE">
+                    <a:fld id="{89D5FDF3-A746-4EFA-B1E9-D10F5663A731}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3533,7 +3533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A09C071F-3BDE-425C-AFB0-52621D337C8B}" type="CELLRANGE">
+                    <a:fld id="{E365AEB3-3D2F-48D5-8EB3-C7B58B2DBBC8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3566,7 +3566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B740417-472F-4E56-B08E-CA8A1F3C6055}" type="CELLRANGE">
+                    <a:fld id="{1BFBF175-9763-4477-8E29-CFEFB567A412}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3599,7 +3599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DFBB3D3-7443-4472-A9E1-83FDA91A6E3F}" type="CELLRANGE">
+                    <a:fld id="{C82265F9-E16B-42D2-9DFD-A55CC4C86632}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3632,7 +3632,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3DBFC51-A6B2-4CB5-A61C-9A36DDC6DE0D}" type="CELLRANGE">
+                    <a:fld id="{7968836A-C68E-469D-AE55-F351B8C86C4E}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3665,7 +3665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7405D5E3-59C1-49D7-8C24-7C08C215AD1B}" type="CELLRANGE">
+                    <a:fld id="{687FCA8F-5923-40E7-9377-6CEA7623AD24}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3698,7 +3698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E511B68E-BAB1-4196-99DC-5E78DD332E39}" type="CELLRANGE">
+                    <a:fld id="{ABF33FF4-BBDD-4489-A2F3-16C5DF86CCFA}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3731,7 +3731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCD01CB5-EB64-4E66-B78F-FEF097B171F5}" type="CELLRANGE">
+                    <a:fld id="{D52DF574-0DE0-4C04-9A95-060548C2B0E5}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3764,7 +3764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0627ADFF-3CDD-4446-9342-30619830B151}" type="CELLRANGE">
+                    <a:fld id="{D6A694AB-9C1E-41CF-99FF-9C14116FFE5F}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3797,7 +3797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25933147-7E12-4D0D-81BB-246B4A5D98F3}" type="CELLRANGE">
+                    <a:fld id="{05A9C0D5-CD16-4534-9DF9-BC9BD58A3801}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3830,7 +3830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEF97818-095C-4AD7-B8FF-FCD7C019B2A8}" type="CELLRANGE">
+                    <a:fld id="{A7ECE70C-A7D1-4A5B-B864-556E1B27D845}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3863,7 +3863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52ECCCEA-096F-48FC-82AE-721BB7161710}" type="CELLRANGE">
+                    <a:fld id="{D5A79540-D916-4E53-8BE1-C94B3DE9FF50}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3896,7 +3896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58E740C6-EDC6-478E-814C-39E8122D70E0}" type="CELLRANGE">
+                    <a:fld id="{913424F1-9D09-4FC8-9744-26F2DF8CDD71}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3929,7 +3929,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4CA60F1-7FA6-4A74-B10C-15C6630267AB}" type="CELLRANGE">
+                    <a:fld id="{1567D4F3-17B1-4B40-9C6C-FDBCEE5E1727}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3962,7 +3962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07229769-EAA3-4DBE-A484-500504C57830}" type="CELLRANGE">
+                    <a:fld id="{B182D8CC-49D1-42C5-9BB8-A46C1FE0B6FD}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3995,7 +3995,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{066ABF1D-FBC3-4AF0-92E6-3BF88E0C40A8}" type="CELLRANGE">
+                    <a:fld id="{85B71274-7C2D-477D-B8A1-A89142A8D1AD}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4028,7 +4028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B618582D-7333-4F55-9422-466C154D3771}" type="CELLRANGE">
+                    <a:fld id="{987AA637-2CF4-45D8-A898-944BACC081E8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4061,7 +4061,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0C3003C-CB38-4FEF-B0AE-683AE27B6BD4}" type="CELLRANGE">
+                    <a:fld id="{D589E6D0-45B0-4904-817D-DA0AF0E46F97}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4094,7 +4094,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEE5739C-C8C0-4A4C-A0E1-347DEE55795A}" type="CELLRANGE">
+                    <a:fld id="{635D2258-162E-4980-BABE-088AC974A90D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4127,7 +4127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FC00DD0-5889-450D-A637-79C1F8C39D0C}" type="CELLRANGE">
+                    <a:fld id="{8D3D8579-52D3-4B85-BB03-82FDFBC4A861}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4160,7 +4160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3193BF9-A597-497C-8ADE-01719F87CF6A}" type="CELLRANGE">
+                    <a:fld id="{1522FF0F-C930-4E9A-9CD2-3138B6BF5053}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4193,7 +4193,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB5C1BFA-B544-4223-9D4F-C15FD05D1BA2}" type="CELLRANGE">
+                    <a:fld id="{56C1F314-B8EC-4ABA-8982-2F83135F4E24}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4226,7 +4226,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE61C35A-0E66-426B-B3EE-47D90EA384AF}" type="CELLRANGE">
+                    <a:fld id="{EA4A4814-9FC9-4D3E-99C0-1D457F47431B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4259,7 +4259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74136D61-40FF-4A39-B552-092F85B94F41}" type="CELLRANGE">
+                    <a:fld id="{CB14B957-D95B-4E68-B5D4-342091A09371}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4292,7 +4292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADAE5853-9AF6-4579-BB07-565029B2EF9B}" type="CELLRANGE">
+                    <a:fld id="{5A4B84CD-B0D0-45B7-84CD-FC613E62BB6B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4325,7 +4325,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD3AADB3-EADF-4E94-A025-8DDABCB0B532}" type="CELLRANGE">
+                    <a:fld id="{FF887F91-3882-4165-A8CD-C5454487C26D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4358,7 +4358,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{599E639D-3A32-4F12-BA5D-233CE5AD8B11}" type="CELLRANGE">
+                    <a:fld id="{FB4ADF52-5080-4751-8566-F774D998A1E9}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4391,7 +4391,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{490FA64D-F4A1-409E-85AB-8F5D13297565}" type="CELLRANGE">
+                    <a:fld id="{6E38BBC6-7FED-4AD0-B857-0527F5DF85C1}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4424,7 +4424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBDEF186-ECAF-4DC3-B4EF-43967D7E5021}" type="CELLRANGE">
+                    <a:fld id="{753243AF-BDE4-4376-9110-4DC5C879BF83}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4457,7 +4457,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6231FECB-5430-4A83-AA16-1A2CC1009B05}" type="CELLRANGE">
+                    <a:fld id="{A37D55A3-6D58-4397-B560-F282F9E0DE25}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4490,7 +4490,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7148F8C-4BAA-4E16-87DA-2CA7B10C16B3}" type="CELLRANGE">
+                    <a:fld id="{510D6577-561C-4A9F-86D6-EFFB763751B8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4523,7 +4523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0AB1FBB-61A2-4A37-94AF-4DED16CEE398}" type="CELLRANGE">
+                    <a:fld id="{672C69E3-0C2A-4C40-AED9-FAE37661FFC8}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4556,7 +4556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5703CDB5-B593-4B4D-BA5F-63E376C5AD1F}" type="CELLRANGE">
+                    <a:fld id="{52D973ED-DD44-4A1E-889F-5BE83332E888}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4589,7 +4589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8991299-556B-42EA-AB5F-2847FD3FB530}" type="CELLRANGE">
+                    <a:fld id="{5B129ABB-BFD8-405B-90A2-0DDD6EA79CAC}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4622,7 +4622,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAC2BDF5-90C0-472D-AB96-9513A89054FF}" type="CELLRANGE">
+                    <a:fld id="{37C09618-56D5-47C0-96A8-D51BB214AAE1}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6052,7 +6052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7EC1240-4682-4EB8-9004-64972322D9A9}" type="CELLRANGE">
+                    <a:fld id="{B3DECE27-EB17-4453-93FA-A468C7A6E3FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6084,7 +6084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5293873-12AF-458E-BCA6-6C69CC6EEAD4}" type="CELLRANGE">
+                    <a:fld id="{D15A6785-7BE7-4EE3-89D7-386C09202858}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6117,7 +6117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDBD5154-513F-4BFD-A0DF-7257CB841519}" type="CELLRANGE">
+                    <a:fld id="{622C43F8-2FF1-43B8-B94C-9C59F501A6AF}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6150,7 +6150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E1BBF89-0BB7-46B0-BEDF-640460895DFE}" type="CELLRANGE">
+                    <a:fld id="{8809D5B7-8E1B-4228-A8E6-85586B69EC3D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6183,7 +6183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A38109D-3F30-4D77-8A8F-03E2B62418EE}" type="CELLRANGE">
+                    <a:fld id="{E9B863EA-4A19-4229-A6E9-F9107589AA16}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6216,7 +6216,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B46556B3-E5E0-4300-937A-1C4826F0995D}" type="CELLRANGE">
+                    <a:fld id="{4384A95E-AC64-4973-89E9-92121C8AE142}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6249,7 +6249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F68ACE6-6745-49AA-B357-42980D8FAEF0}" type="CELLRANGE">
+                    <a:fld id="{C9EF2A92-C26A-4DAE-B7DD-77D2CB8FDC73}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6282,7 +6282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{486C1CE2-0271-4006-83A3-2367A3718DBA}" type="CELLRANGE">
+                    <a:fld id="{45D4E5F2-9CDE-49D1-88BA-05636BD23102}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6315,7 +6315,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A53170F3-D311-46DD-8529-EF937F2FDF34}" type="CELLRANGE">
+                    <a:fld id="{6018666F-A893-439D-9936-C7717F7E12B6}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6348,7 +6348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69B08DD6-DAD3-44F9-A150-41B898956BCA}" type="CELLRANGE">
+                    <a:fld id="{63EB38B0-F034-44D3-AA29-9D2A88991342}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6381,7 +6381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21D6D203-B72D-4BDA-ABA9-A18C64F1D89F}" type="CELLRANGE">
+                    <a:fld id="{3534EAED-FE7E-4C58-8BDB-EFF6A1ABAE82}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6414,7 +6414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CD28C42-3B85-4C76-9D90-E7F7DC0C6369}" type="CELLRANGE">
+                    <a:fld id="{9B87FE0B-3FEF-4AB6-A1D1-6AC66F291F09}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6447,7 +6447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{104AEE52-1BF7-45C8-A7CC-8EA5D45195E4}" type="CELLRANGE">
+                    <a:fld id="{BD654778-0C03-4473-8894-03727DA648CC}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6480,7 +6480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAEDFB6E-4B95-463F-8AD1-741537079EDD}" type="CELLRANGE">
+                    <a:fld id="{DF2D8EFB-F227-41BD-8D9E-393423BBDB17}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6513,7 +6513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7F5BEAC-8933-4309-903D-81E3710CD4D2}" type="CELLRANGE">
+                    <a:fld id="{172D32D1-5C46-4F3E-9BA9-D013F084E422}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6546,7 +6546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0B4A1FB-D02A-447B-8AE7-6D8041131E48}" type="CELLRANGE">
+                    <a:fld id="{6422AE0A-FD07-4A80-B244-75860C3BDFDE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6579,7 +6579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD880A6A-A482-4AB0-8BFF-1C98B30F0288}" type="CELLRANGE">
+                    <a:fld id="{F95BC641-9600-4687-BAD9-079419DF0495}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6612,7 +6612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A537ECFF-803A-40D7-87D3-D96DD77A486B}" type="CELLRANGE">
+                    <a:fld id="{FD1058F2-BDF7-4C28-B208-29EB7B908346}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6645,7 +6645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1557B4EC-DF5B-458F-8113-D753C65BEB80}" type="CELLRANGE">
+                    <a:fld id="{194E003E-D02C-4C5B-9E9D-9EED25E8B015}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6678,7 +6678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06421481-ECDC-44A4-8321-6F403141F7BE}" type="CELLRANGE">
+                    <a:fld id="{1C7C9F4B-E29D-406D-83B7-1E80C7A6E92E}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6711,7 +6711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74497862-00E6-48D3-81D7-BA62DF79B6FF}" type="CELLRANGE">
+                    <a:fld id="{1F5139EF-3105-43D9-9C0A-241F08B5AD2C}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6744,7 +6744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94D19640-5E6C-4A36-BE2C-5EDE5A20DAEE}" type="CELLRANGE">
+                    <a:fld id="{38D8E448-10CD-40F5-B2C4-6C6E1C5EE012}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6777,7 +6777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F350D5F5-A552-457C-A6B8-6E23F75AB8E4}" type="CELLRANGE">
+                    <a:fld id="{B1007FD2-4609-4209-BBFC-C1A2F4C96D4A}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6810,7 +6810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C59D6A85-4809-4D61-9C6F-AF6296A4ADF4}" type="CELLRANGE">
+                    <a:fld id="{DF67B8F3-E9A4-4B41-A946-9D6E9B9D4E25}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6843,7 +6843,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B54696D1-06D6-4D86-AF08-0E3D001D4E94}" type="CELLRANGE">
+                    <a:fld id="{2C2B2CF8-400A-43CC-9AC7-550F7E95A32B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6876,7 +6876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAA498E3-49B7-4120-A419-E16FDC2AA87D}" type="CELLRANGE">
+                    <a:fld id="{87CB2B71-3E15-4FC1-8792-07C88B154816}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6909,7 +6909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E04EBB0C-F0FF-46E7-A9B8-CF9778786BF7}" type="CELLRANGE">
+                    <a:fld id="{87970B1D-19BE-4027-8067-3B669C73832F}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6942,7 +6942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1CCCBA0-D15F-4C24-9494-D1997EF710DF}" type="CELLRANGE">
+                    <a:fld id="{DC69B080-8009-4A8D-940B-83CF1AC79D8D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6975,7 +6975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9CA459A-89F3-4E1F-AB53-E480276483B6}" type="CELLRANGE">
+                    <a:fld id="{8CFA26B9-92E1-4664-A4E9-40760369EBFF}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7008,7 +7008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AE16CFB-CFBA-4989-9FF8-7E1F63CB0CFE}" type="CELLRANGE">
+                    <a:fld id="{582E298A-91BC-4FDF-9E6F-D7CA03DD2824}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7041,7 +7041,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD6274B4-4E25-462A-8C5A-95542A8B1245}" type="CELLRANGE">
+                    <a:fld id="{842DBD98-AE06-48D4-B895-1ADD70576EAB}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7074,7 +7074,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B88F32E8-F56E-4E39-9BE6-28AAD9ECB5BE}" type="CELLRANGE">
+                    <a:fld id="{6C836F1D-FE07-4B24-8077-9AB09E5F16EC}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7107,7 +7107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D7CCF91-E693-4796-83E6-98FF5E832FCE}" type="CELLRANGE">
+                    <a:fld id="{8E5B073C-BC84-4E55-842C-0735D8639117}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7140,7 +7140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DC3C4FE-40B4-4BCE-BDC4-33E5ED642CC0}" type="CELLRANGE">
+                    <a:fld id="{C28863BF-184E-4025-9E7D-4EF1718B3824}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7173,7 +7173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F950B5C7-F564-4D62-B2BA-7D05EF5528DC}" type="CELLRANGE">
+                    <a:fld id="{042CE5F5-7DE5-4598-9016-9FD369C0A019}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7206,7 +7206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE1CC5AB-BA10-40D1-9873-4C096AD27813}" type="CELLRANGE">
+                    <a:fld id="{FA0EA0C1-86BF-4082-B2C9-12D5097CE1DE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7239,7 +7239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4355880C-EA99-463C-94DE-544483614856}" type="CELLRANGE">
+                    <a:fld id="{8C2E30BC-B769-4FB8-87E1-117862B8BDDF}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7272,7 +7272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BFE1CB8-7E57-4637-B1D2-2E5872FC1165}" type="CELLRANGE">
+                    <a:fld id="{B5AF2D52-6E99-40DB-976B-C641E16EDCD0}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7305,7 +7305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3312EE1-F688-49FF-A52D-EC44B13C1AAF}" type="CELLRANGE">
+                    <a:fld id="{C0292CB2-3A54-4EE1-ACCD-7036C57179D4}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7338,7 +7338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04609A36-E6B2-4AD0-980C-672C801F01BF}" type="CELLRANGE">
+                    <a:fld id="{80D98079-10ED-4456-9207-432E6FD0BFDA}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7371,7 +7371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0C46BFE-5F42-4125-81A3-67B7ECDC00AA}" type="CELLRANGE">
+                    <a:fld id="{0C882D36-CD7F-4556-B8C0-75BD01652699}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7404,7 +7404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43335894-56D7-4E97-97B6-062A4FAF2750}" type="CELLRANGE">
+                    <a:fld id="{10D529F3-2BBC-4A67-BD7F-655F5144C8D9}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7437,7 +7437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEA2B45E-811E-46F0-912E-2550E09A79F4}" type="CELLRANGE">
+                    <a:fld id="{34578211-4495-4663-8072-BF6C575FCB4F}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7470,7 +7470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C158E1C5-DCF6-41CA-9FE9-B7E7DAA1A4F9}" type="CELLRANGE">
+                    <a:fld id="{390D9A48-1DEE-4FA4-9377-DD056C5D31E0}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7503,7 +7503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FB92684-8AE0-4CAF-A981-2BAD31DB0CB5}" type="CELLRANGE">
+                    <a:fld id="{25A0956C-0D34-4C69-8742-D7243D0AF0EC}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7536,7 +7536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97681B33-A4E8-4171-B763-1BAA3C6C77E9}" type="CELLRANGE">
+                    <a:fld id="{C3D4189B-7797-4177-B02E-05276A93D7BF}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7569,7 +7569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{982D9626-F2C8-4BF9-BACD-8BD3E7D12B2D}" type="CELLRANGE">
+                    <a:fld id="{1C6A446F-B56C-43BA-8D1C-1D7F3E59FFA0}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7602,7 +7602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6640A3D-01D7-46FB-8769-0DF324AA3967}" type="CELLRANGE">
+                    <a:fld id="{3D2406F1-6DF2-4046-8393-084165B5F35C}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7635,7 +7635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BF5A82B-47FC-4031-A005-15E1DBF7863F}" type="CELLRANGE">
+                    <a:fld id="{74EF7B7B-D3D8-412A-80D3-07C7808011E9}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7668,7 +7668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63019ACF-500A-4804-A432-9A7CA392700C}" type="CELLRANGE">
+                    <a:fld id="{70FBED72-C0C6-4E9E-83BB-19965C8AA876}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7701,7 +7701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36ABBE00-E97B-45F2-B945-7F0B744A9ADA}" type="CELLRANGE">
+                    <a:fld id="{E8194AF9-520D-46CD-801C-9BF37102E81F}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7734,7 +7734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C6577DB-5BD9-4571-8F70-759C799457B2}" type="CELLRANGE">
+                    <a:fld id="{E6130747-B114-49FA-9AC3-DCAA3D35B9F0}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7767,7 +7767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{274D69BB-BD88-43DD-B93A-731715E762D8}" type="CELLRANGE">
+                    <a:fld id="{7375B945-7C51-441D-B4AC-23CC87D0CBB1}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7800,7 +7800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6037ED3A-396B-4B33-9BA1-D13486A7C6DD}" type="CELLRANGE">
+                    <a:fld id="{B5D2D56A-C11F-445B-A5F2-634DEC17C62F}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7833,7 +7833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59075EAC-5069-4900-8063-F8CA55D26012}" type="CELLRANGE">
+                    <a:fld id="{298910C9-4812-4B14-A7F8-A2A9CB62772C}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7866,7 +7866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E65D3FCF-2763-46FA-A898-627DBF319434}" type="CELLRANGE">
+                    <a:fld id="{5E76F44A-4E17-4A79-9BF0-53F8B9130AC6}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7899,7 +7899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C39B7201-0EBC-47A9-8312-1A9F585FD628}" type="CELLRANGE">
+                    <a:fld id="{F06DCE82-CD77-4494-8572-13AAA4F2CC68}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7932,7 +7932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AFAFF07-9C9C-4EED-8B92-A57F19882AF4}" type="CELLRANGE">
+                    <a:fld id="{E28D4B38-AA75-4AAB-9FB9-212D3B7A0E80}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7965,7 +7965,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F280C66-F153-4425-B0EA-03996F2B6CBF}" type="CELLRANGE">
+                    <a:fld id="{D17E69BE-72DD-49E1-8A05-F83A7877484B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7998,7 +7998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6ADD8BD0-DC69-4F40-82AD-DD0AA54815F7}" type="CELLRANGE">
+                    <a:fld id="{3168E168-FCAF-4528-8288-D9057D5ACC50}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8031,7 +8031,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E23C8216-E666-4D48-85E4-8D95A37A2329}" type="CELLRANGE">
+                    <a:fld id="{70EED8E7-404E-4869-A9C4-0B90459C7448}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8064,7 +8064,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AE640E5-581E-4006-9889-402846EFD6EB}" type="CELLRANGE">
+                    <a:fld id="{D04CFA6A-B0EF-452F-BB06-A46A5EFC43C7}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8097,7 +8097,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42DE8371-2E6D-4F54-A1C5-B551C0772594}" type="CELLRANGE">
+                    <a:fld id="{8137489A-103C-4654-9DDA-714A269E6560}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8130,7 +8130,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC9E3C80-44B2-4666-B81B-9A6E14D450BA}" type="CELLRANGE">
+                    <a:fld id="{FD8E6322-2D4C-4EF2-A43E-0306D73A8713}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8163,7 +8163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC38A448-D22F-432B-9164-0E6BF3BA5587}" type="CELLRANGE">
+                    <a:fld id="{FEC4FFFE-A624-418D-8AC8-7F1E51A99376}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8196,7 +8196,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34D63C78-83A1-449E-8CF3-61F8F7D4E740}" type="CELLRANGE">
+                    <a:fld id="{318FC809-B0E3-4BAF-A469-89874245B657}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8229,7 +8229,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{220AAA8C-F409-4E4C-9629-B253C8B08C7E}" type="CELLRANGE">
+                    <a:fld id="{1A0C5055-16B2-4272-99C4-A0A47BEEBB32}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8262,7 +8262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A14F681-A3C5-4157-AF40-995FB7463ED6}" type="CELLRANGE">
+                    <a:fld id="{665190EF-BBBE-4872-A6EF-00062B0F4C8B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8295,7 +8295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94227F8A-66A0-4A42-9254-6A6557DE5AB9}" type="CELLRANGE">
+                    <a:fld id="{8985DE8F-484A-4ED7-8333-4CCFA5F330E5}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8328,7 +8328,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4637BE1C-DAC3-40E3-99F4-0851089ECAD2}" type="CELLRANGE">
+                    <a:fld id="{9C3BF60B-7AC5-41BD-A035-7F655DEBCAE1}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8361,7 +8361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F07C9D7E-5FC1-4D75-904B-1D248893A148}" type="CELLRANGE">
+                    <a:fld id="{BFA35ADC-A0B4-4C7C-8C23-F92F096AC5FE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -12476,15 +12476,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>490370</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4930</xdr:rowOff>
+      <xdr:colOff>551330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>35410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12811,8 +12811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963CCD7C-9D83-4567-84CC-D122E8B4B6FE}">
   <dimension ref="A1:AJ187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14864,7 +14864,7 @@
         <v>55</v>
       </c>
       <c r="O60">
-        <f>P48+8</f>
+        <f t="shared" ref="O60:O65" si="3">P48+8</f>
         <v>-26</v>
       </c>
       <c r="P60">
@@ -14902,7 +14902,7 @@
         <v>52.5</v>
       </c>
       <c r="O61">
-        <f>P49+8</f>
+        <f t="shared" si="3"/>
         <v>-19</v>
       </c>
       <c r="P61">
@@ -14940,7 +14940,7 @@
         <v>52</v>
       </c>
       <c r="O62">
-        <f>P50+8</f>
+        <f t="shared" si="3"/>
         <v>-14</v>
       </c>
       <c r="P62">
@@ -14978,7 +14978,7 @@
         <v>50</v>
       </c>
       <c r="O63">
-        <f>P51+8</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
     </row>
@@ -15009,7 +15009,7 @@
         <v>47.5</v>
       </c>
       <c r="O64">
-        <f>P52+8</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R64">
@@ -15046,7 +15046,7 @@
         <v>45</v>
       </c>
       <c r="O65">
-        <f>P53+8</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="R65">
@@ -15103,7 +15103,7 @@
         <v>97</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D108" si="3">J67*5/2</f>
+        <f t="shared" ref="D67:D108" si="4">J67*5/2</f>
         <v>7.5</v>
       </c>
       <c r="E67" s="3">
@@ -15139,7 +15139,7 @@
         <v>24</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E68" s="3">
@@ -15175,7 +15175,7 @@
         <v>98</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="E69" s="3">
@@ -15211,7 +15211,7 @@
         <v>99</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="E70" s="3">
@@ -15247,7 +15247,7 @@
         <v>100</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
       <c r="E71" s="3">
@@ -15277,7 +15277,7 @@
         <v>101</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
       <c r="E72" s="3">
@@ -15307,7 +15307,7 @@
         <v>102</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
       <c r="E73" s="3">
@@ -15418,7 +15418,7 @@
         <v>106</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.5</v>
       </c>
       <c r="E77" s="3">
@@ -15442,7 +15442,7 @@
         <v>107</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E78" s="3">
@@ -15455,7 +15455,7 @@
         <v>12</v>
       </c>
       <c r="N78">
-        <f>R64-2.5</f>
+        <f t="shared" ref="N78:N83" si="5">R64-2.5</f>
         <v>60</v>
       </c>
       <c r="O78">
@@ -15474,7 +15474,7 @@
         <v>108</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
       <c r="E79" s="3">
@@ -15487,7 +15487,7 @@
         <v>13</v>
       </c>
       <c r="N79">
-        <f>R65-2.5</f>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="O79">
@@ -15506,7 +15506,7 @@
         <v>109</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="E80" s="3">
@@ -15519,7 +15519,7 @@
         <v>14</v>
       </c>
       <c r="N80">
-        <f>R66-2.5</f>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="O80">
@@ -15538,7 +15538,7 @@
         <v>110</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E81" s="3">
@@ -15551,7 +15551,7 @@
         <v>16</v>
       </c>
       <c r="N81">
-        <f>R67-2.5</f>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="O81">
@@ -15570,7 +15570,7 @@
         <v>111</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="E82" s="3">
@@ -15583,7 +15583,7 @@
         <v>18</v>
       </c>
       <c r="N82">
-        <f>R68-2.5</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="O82">
@@ -15602,7 +15602,7 @@
         <v>112</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E83" s="3">
@@ -15615,7 +15615,7 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f>R69-2.5</f>
+        <f t="shared" si="5"/>
         <v>47.5</v>
       </c>
       <c r="O83">
@@ -15634,7 +15634,7 @@
         <v>113</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="E84" s="3">
@@ -15665,7 +15665,7 @@
         <v>115</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="E85" s="5">
@@ -15695,7 +15695,7 @@
         <v>116</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="E86" s="5">
@@ -15725,7 +15725,7 @@
         <v>117</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="E87" s="5">
@@ -15749,7 +15749,7 @@
         <v>118</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="E88" s="3">
@@ -15773,7 +15773,7 @@
         <v>119</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="E89" s="3">
@@ -15797,7 +15797,7 @@
         <v>120</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="E90" s="3">
@@ -15821,7 +15821,7 @@
         <v>121</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.25</v>
       </c>
       <c r="E91" s="3">
@@ -15845,7 +15845,7 @@
         <v>122</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="E92" s="3">
@@ -15869,7 +15869,7 @@
         <v>123</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63.75</v>
       </c>
       <c r="E93" s="3">
@@ -15893,7 +15893,7 @@
         <v>124</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="E94" s="3">
@@ -15917,7 +15917,7 @@
         <v>125</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.25</v>
       </c>
       <c r="E95" s="3">
@@ -15941,7 +15941,7 @@
         <v>126</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="E96" s="3">
@@ -15965,7 +15965,7 @@
         <v>127</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68.75</v>
       </c>
       <c r="E97" s="3">
@@ -15989,7 +15989,7 @@
         <v>129</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="E98" s="3">
@@ -16013,7 +16013,7 @@
         <v>131</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="E99" s="5">
@@ -16037,7 +16037,7 @@
         <v>132</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="E100" s="3">
@@ -16061,7 +16061,7 @@
         <v>133</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="E101" s="3">
@@ -16085,7 +16085,7 @@
         <v>134</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="E102" s="3">
@@ -16109,7 +16109,7 @@
         <v>135</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="E103" s="3">
@@ -16133,7 +16133,7 @@
         <v>136</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="E104" s="3">
@@ -16157,7 +16157,7 @@
         <v>137</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E105" s="3">
@@ -16181,7 +16181,7 @@
         <v>138</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E106" s="3">
@@ -16205,7 +16205,7 @@
         <v>139</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="E107" s="3">
@@ -16229,7 +16229,7 @@
         <v>140</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="E108" s="3">
@@ -16559,7 +16559,7 @@
         <v>35</v>
       </c>
       <c r="F125" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -16759,7 +16759,7 @@
         <v>20</v>
       </c>
       <c r="F135" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -16779,7 +16779,7 @@
         <v>61</v>
       </c>
       <c r="F136" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -16799,7 +16799,7 @@
         <v>67</v>
       </c>
       <c r="F137" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -16818,8 +16818,8 @@
       <c r="E138" s="7">
         <v>65</v>
       </c>
-      <c r="F138" s="7">
-        <v>0</v>
+      <c r="F138" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -16839,7 +16839,7 @@
         <v>63</v>
       </c>
       <c r="F139" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -16859,7 +16859,7 @@
         <v>50</v>
       </c>
       <c r="F140" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -16878,8 +16878,8 @@
       <c r="E141" s="6">
         <v>45</v>
       </c>
-      <c r="F141" s="6">
-        <v>0</v>
+      <c r="F141" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -16899,7 +16899,7 @@
         <v>35</v>
       </c>
       <c r="F142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -16919,7 +16919,7 @@
         <v>30</v>
       </c>
       <c r="F143" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -16939,7 +16939,7 @@
         <v>25</v>
       </c>
       <c r="F144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
@@ -16958,8 +16958,8 @@
       <c r="E145" s="6">
         <v>20</v>
       </c>
-      <c r="F145" s="6">
-        <v>0</v>
+      <c r="F145" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
@@ -16978,8 +16978,8 @@
       <c r="E146" s="6">
         <v>15</v>
       </c>
-      <c r="F146" s="6">
-        <v>0</v>
+      <c r="F146" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
@@ -16998,8 +16998,8 @@
       <c r="E147" s="6">
         <v>10</v>
       </c>
-      <c r="F147" s="6">
-        <v>0</v>
+      <c r="F147" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
@@ -17018,8 +17018,8 @@
       <c r="E148" s="6">
         <v>5</v>
       </c>
-      <c r="F148" s="6">
-        <v>0</v>
+      <c r="F148" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
@@ -17038,8 +17038,8 @@
       <c r="E149" s="6">
         <v>0</v>
       </c>
-      <c r="F149" s="6">
-        <v>0</v>
+      <c r="F149" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
@@ -17058,8 +17058,8 @@
       <c r="E150" s="6">
         <v>-5</v>
       </c>
-      <c r="F150" s="6">
-        <v>0</v>
+      <c r="F150" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
@@ -17078,8 +17078,8 @@
       <c r="E151" s="6">
         <v>-10</v>
       </c>
-      <c r="F151" s="6">
-        <v>0</v>
+      <c r="F151" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
@@ -17098,8 +17098,8 @@
       <c r="E152" s="6">
         <v>-20</v>
       </c>
-      <c r="F152" s="6">
-        <v>0</v>
+      <c r="F152" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
@@ -17118,8 +17118,8 @@
       <c r="E153" s="6">
         <v>-30</v>
       </c>
-      <c r="F153" s="6">
-        <v>0</v>
+      <c r="F153" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
@@ -17138,8 +17138,8 @@
       <c r="E154" s="6">
         <v>-35</v>
       </c>
-      <c r="F154" s="6">
-        <v>0</v>
+      <c r="F154" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
@@ -17158,8 +17158,8 @@
       <c r="E155" s="6">
         <v>-40</v>
       </c>
-      <c r="F155" s="6">
-        <v>0</v>
+      <c r="F155" s="5">
+        <v>1</v>
       </c>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -17184,8 +17184,8 @@
       <c r="E156" s="6">
         <v>35</v>
       </c>
-      <c r="F156" s="6">
-        <v>0</v>
+      <c r="F156" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
@@ -17204,8 +17204,8 @@
       <c r="E157" s="6">
         <v>33</v>
       </c>
-      <c r="F157" s="6">
-        <v>0</v>
+      <c r="F157" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
@@ -17224,8 +17224,8 @@
       <c r="E158" s="6">
         <v>31</v>
       </c>
-      <c r="F158" s="6">
-        <v>0</v>
+      <c r="F158" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
@@ -17244,8 +17244,8 @@
       <c r="E159" s="6">
         <v>29</v>
       </c>
-      <c r="F159" s="6">
-        <v>0</v>
+      <c r="F159" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
@@ -17264,8 +17264,8 @@
       <c r="E160" s="6">
         <v>28</v>
       </c>
-      <c r="F160" s="6">
-        <v>0</v>
+      <c r="F160" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -17284,8 +17284,8 @@
       <c r="E161" s="6">
         <v>27</v>
       </c>
-      <c r="F161" s="6">
-        <v>0</v>
+      <c r="F161" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -17304,8 +17304,8 @@
       <c r="E162" s="6">
         <v>25</v>
       </c>
-      <c r="F162" s="6">
-        <v>0</v>
+      <c r="F162" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -17324,8 +17324,8 @@
       <c r="E163" s="6">
         <v>25</v>
       </c>
-      <c r="F163" s="6">
-        <v>0</v>
+      <c r="F163" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -17344,8 +17344,8 @@
       <c r="E164" s="6">
         <v>27</v>
       </c>
-      <c r="F164" s="6">
-        <v>0</v>
+      <c r="F164" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -17364,8 +17364,8 @@
       <c r="E165" s="6">
         <v>32</v>
       </c>
-      <c r="F165" s="6">
-        <v>0</v>
+      <c r="F165" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -17384,8 +17384,8 @@
       <c r="E166" s="6">
         <v>37</v>
       </c>
-      <c r="F166" s="6">
-        <v>0</v>
+      <c r="F166" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -17404,8 +17404,8 @@
       <c r="E167" s="6">
         <v>42</v>
       </c>
-      <c r="F167" s="6">
-        <v>0</v>
+      <c r="F167" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -17425,7 +17425,7 @@
         <v>45</v>
       </c>
       <c r="F168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -17445,7 +17445,7 @@
         <v>53</v>
       </c>
       <c r="F169" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -17464,8 +17464,8 @@
       <c r="E170" s="6">
         <v>-7</v>
       </c>
-      <c r="F170" s="6">
-        <v>0</v>
+      <c r="F170" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -17484,8 +17484,8 @@
       <c r="E171" s="6">
         <v>-2</v>
       </c>
-      <c r="F171" s="6">
-        <v>0</v>
+      <c r="F171" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -17504,8 +17504,8 @@
       <c r="E172" s="6">
         <v>3</v>
       </c>
-      <c r="F172" s="6">
-        <v>0</v>
+      <c r="F172" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -17524,8 +17524,8 @@
       <c r="E173" s="6">
         <v>8</v>
       </c>
-      <c r="F173" s="6">
-        <v>0</v>
+      <c r="F173" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -17544,8 +17544,8 @@
       <c r="E174" s="6">
         <v>13</v>
       </c>
-      <c r="F174" s="6">
-        <v>0</v>
+      <c r="F174" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -17564,8 +17564,8 @@
       <c r="E175" s="6">
         <v>18</v>
       </c>
-      <c r="F175" s="6">
-        <v>0</v>
+      <c r="F175" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -17584,8 +17584,8 @@
       <c r="E176" s="6">
         <v>23</v>
       </c>
-      <c r="F176" s="6">
-        <v>0</v>
+      <c r="F176" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -17604,8 +17604,8 @@
       <c r="E177" s="6">
         <v>28</v>
       </c>
-      <c r="F177" s="6">
-        <v>0</v>
+      <c r="F177" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -17624,8 +17624,8 @@
       <c r="E178" s="6">
         <v>33</v>
       </c>
-      <c r="F178" s="6">
-        <v>0</v>
+      <c r="F178" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -17645,7 +17645,7 @@
         <v>38</v>
       </c>
       <c r="F179" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -17664,8 +17664,8 @@
       <c r="E180" s="6">
         <v>37</v>
       </c>
-      <c r="F180" s="6">
-        <v>0</v>
+      <c r="F180" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -17684,8 +17684,8 @@
       <c r="E181" s="6">
         <v>33</v>
       </c>
-      <c r="F181" s="6">
-        <v>0</v>
+      <c r="F181" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -17704,8 +17704,8 @@
       <c r="E182" s="6">
         <v>29</v>
       </c>
-      <c r="F182" s="6">
-        <v>0</v>
+      <c r="F182" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -17724,8 +17724,8 @@
       <c r="E183" s="6">
         <v>25</v>
       </c>
-      <c r="F183" s="6">
-        <v>0</v>
+      <c r="F183" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -17744,8 +17744,8 @@
       <c r="E184" s="6">
         <v>21</v>
       </c>
-      <c r="F184" s="6">
-        <v>0</v>
+      <c r="F184" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -17764,8 +17764,8 @@
       <c r="E185" s="6">
         <v>16</v>
       </c>
-      <c r="F185" s="6">
-        <v>0</v>
+      <c r="F185" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -17784,8 +17784,8 @@
       <c r="E186" s="6">
         <v>10</v>
       </c>
-      <c r="F186" s="6">
-        <v>0</v>
+      <c r="F186" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -17804,8 +17804,8 @@
       <c r="E187" s="6">
         <v>4</v>
       </c>
-      <c r="F187" s="6">
-        <v>0</v>
+      <c r="F187" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
